--- a/results/hypoxic_durations.xlsx
+++ b/results/hypoxic_durations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,11 +641,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>q1c15</t>
+          <t>q1c10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.58333139121532</v>
+        <v>30.49999818205833</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166666477918625</v>
+        <v>1.833333224058151</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -681,17 +681,17 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>139.4166583567858</v>
+        <v>135.7499919086695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>q1c2936</t>
+          <t>q1c15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.49999770522118</v>
+        <v>32.58333139121532</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4999999701976776</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8.083332851529121</v>
+        <v>3.166666477918625</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -727,17 +727,17 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>150.9166576713324</v>
+        <v>139.4166583567858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>q3c454</t>
+          <t>q1c20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.83333149552345</v>
+        <v>34.74999792873859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.749999895691872</v>
+        <v>4.833333045244217</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -773,17 +773,17 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>145.3333246707916</v>
+        <v>144.3333247303963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>q3c15</t>
+          <t>q1c25</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.08333130180836</v>
+        <v>37.1666644513607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0833333283662796</v>
       </c>
       <c r="J8" t="n">
-        <v>3.833333104848862</v>
+        <v>6.916666254401207</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -819,17 +819,17 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>155.9166573733091</v>
+        <v>148.1666578352451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>q3c2936</t>
+          <t>q1c2936</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.5833310931921</v>
+        <v>38.49999770522118</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -850,32 +850,32 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.416666582226753</v>
+        <v>0.4999999701976776</v>
       </c>
       <c r="J9" t="n">
-        <v>9.333332777023315</v>
+        <v>8.083332851529121</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2499999850988388</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>168.5833232849836</v>
+        <v>150.9166576713324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>q5c454</t>
+          <t>q3c454</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.58333151042461</v>
+        <v>30.83333149552345</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.416666641831398</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.99999988079071</v>
+        <v>1.749999895691872</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -911,17 +911,17 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>143.5833247750998</v>
+        <v>145.3333246707916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>q5c10</t>
+          <t>q3c10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.74999804794788</v>
+        <v>32.49999806284904</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -942,32 +942,32 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9999999403953552</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.999999821186066</v>
+        <v>2.666666507720947</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0833333283662796</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>148.7499911338091</v>
+        <v>150.6666576862335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>q5c15</t>
+          <t>q3c15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.74999792873859</v>
+        <v>34.08333130180836</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.333333253860474</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.499999731779099</v>
+        <v>3.833333104848862</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1666666567325592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>153.5833241790533</v>
+        <v>155.9166573733091</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>q5c20</t>
+          <t>q3c20</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1034,32 +1034,32 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.666666567325592</v>
+        <v>0.0833333283662796</v>
       </c>
       <c r="J13" t="n">
-        <v>6.416666284203529</v>
+        <v>5.083333030343056</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2499999850988388</v>
+        <v>0.0833333283662796</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>158.7499905377626</v>
+        <v>160.7499904185534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>q5c2936</t>
+          <t>q3c25</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.83333107829094</v>
+        <v>37.08333112299442</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1080,32 +1080,32 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.916666373610497</v>
+        <v>0.3333333134651184</v>
       </c>
       <c r="J14" t="n">
-        <v>10.16666606068611</v>
+        <v>7.666666209697723</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2499999850988388</v>
+        <v>0.1666666567325592</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>167.2499900311232</v>
+        <v>165.1666568219662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>q9c454</t>
+          <t>q3c2936</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.66666483879089</v>
+        <v>37.5833310931921</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1126,32 +1126,32 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.416666463017464</v>
+        <v>1.416666582226753</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3333333134651184</v>
+        <v>9.333332777023315</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3333333134651184</v>
+        <v>0.2499999850988388</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>152.9999908804893</v>
+        <v>168.5833232849836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>q9c15</t>
+          <t>q5c454</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.66666454076767</v>
+        <v>30.58333151042461</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1172,67 +1172,803 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.583333000540733</v>
+        <v>0.416666641831398</v>
       </c>
       <c r="J16" t="n">
-        <v>2.749999836087227</v>
+        <v>1.99999988079071</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.416666641831398</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>163.4999902546406</v>
+        <v>143.5833247750998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
+          <t>q5c10</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>32.74999804794788</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9999999403953552</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.999999821186066</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0833333283662796</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>148.7499911338091</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>q5c15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>34.74999792873859</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.333333253860474</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.499999731779099</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1666666567325592</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>153.5833241790533</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>q5c20</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>36.08333118259907</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.666666567325592</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.416666284203529</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.2499999850988388</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>158.7499905377626</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>q5c25</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>37.33333110809326</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.749999836087227</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.583332821726799</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2499999850988388</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>163.4166569262743</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>q5c2936</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>37.83333107829094</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.916666373610497</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.16666606068611</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2499999850988388</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>167.2499900311232</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>q7c454</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>31.16666480898857</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3333333134651184</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.416666582226753</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1666666567325592</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>144.5833247154951</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>q7c10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>33.58333133161068</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9999999403953552</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.583333179354668</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.2499999850988388</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>148.9999911189079</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>q7c15</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>35.33333122730255</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.749999895691872</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.583333119750023</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2499999850988388</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>154.2499908059835</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>q7c20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>36.24999783933163</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.499999850988388</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.749999716877937</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3333333134651184</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>159.9166571348906</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>q7c25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>37.24999777972698</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.499999791383743</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7.416666224598885</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.416666641831398</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>164.8333235085011</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>q7c2936</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>37.49999776482582</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.333333134651184</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.166666179895401</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.4999999701976776</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>165.2499901503325</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>q9c454</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>30.66666483879089</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.416666463017464</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3333333134651184</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3333333134651184</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>152.9999908804893</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>q9c10</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>33.33333134651184</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.333333075046539</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.499999910593033</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.3333333134651184</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>156.8333239853382</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>q9c15</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>35.66666454076767</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.583333000540733</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.749999836087227</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.416666641831398</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>163.4999902546406</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>q9c20</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>36.7499978095293</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.583332940936089</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.416666463017464</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6666666269302368</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>170.4999898374081</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>q9c25</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>37.83333107829094</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.749999478459358</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.666666328907013</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.166666597127914</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>175.249989554286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>q9c2936</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B33" t="n">
         <v>38.49999770522118</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>11.16666600108147</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J33" t="n">
         <v>7.583332881331444</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>1.99999988079071</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>177.7499894052744</v>
       </c>
     </row>
